--- a/biology/Zoologie/Austropsopilio_megalops/Austropsopilio_megalops.xlsx
+++ b/biology/Zoologie/Austropsopilio_megalops/Austropsopilio_megalops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Austropsopilio megalops est une espèce d'opilions dyspnois de la famille des Acropsopilionidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Tasmanie en Australie[1]. Elle se rencontre vers Liffey.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Tasmanie en Australie. Elle se rencontre vers Liffey.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 0,97 mm de long et 0,40 mm de large[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 0,97 mm de long et 0,40 mm de large.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Tasmanopilio megalops par Hickman en 1957. Elle est placée dans le genre Austropsopilio par Shear en 1974[2], dans le genre Tasmanopilio par Cokendolpher et Maury en 1990[3] puis dans le genre Austropsopilio par Shear en 1996[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Tasmanopilio megalops par Hickman en 1957. Elle est placée dans le genre Austropsopilio par Shear en 1974, dans le genre Tasmanopilio par Cokendolpher et Maury en 1990 puis dans le genre Austropsopilio par Shear en 1996.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hickman, 1957 : « Some Tasmanian harvestmen of the sub-order Palpatores. » Papers and proceedings of the Royal Society of Tasmania, vol. 91, p. 65–79.</t>
         </is>
